--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17955" windowHeight="12060"/>
+    <workbookView windowWidth="20355" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="13" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>表名</t>
   </si>
@@ -46,6 +46,12 @@
     <t>主键,自增</t>
   </si>
   <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>机构ID</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -79,7 +85,13 @@
     <t>bool</t>
   </si>
   <si>
-    <t>账户是否锁定，默认false</t>
+    <t>账号是否锁定 0:未锁定 1:已锁定 默认0</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>是否可用 0:不可用 1:可用 默认1</t>
   </si>
   <si>
     <t>sys_organization</t>
@@ -94,15 +106,6 @@
     <t>组织机构名</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>显示顺序</t>
-  </si>
-  <si>
     <t>parent_id</t>
   </si>
   <si>
@@ -115,58 +118,61 @@
     <t>父编号列表</t>
   </si>
   <si>
-    <t>available</t>
+    <t>sys_resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>主键，自增</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>权限字符串</t>
+  </si>
+  <si>
+    <t>sys_role</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>角色描述</t>
+  </si>
+  <si>
+    <t>resource_ids</t>
+  </si>
+  <si>
+    <t>授权的资源</t>
   </si>
   <si>
     <t>是否可用，默认false</t>
-  </si>
-  <si>
-    <t>sys_resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>主键，自增</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>permission</t>
-  </si>
-  <si>
-    <t>权限字符串</t>
-  </si>
-  <si>
-    <t>sys_role</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>角色名称</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>角色描述</t>
-  </si>
-  <si>
-    <t>resource_ids</t>
-  </si>
-  <si>
-    <t>授权的资源</t>
   </si>
 </sst>
 </file>
@@ -174,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1167,10 +1173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1224,21 +1230,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -1252,10 +1256,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -1266,10 +1270,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -1280,332 +1284,348 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>50</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>200</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4">
         <v>100</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4">
         <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>100</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20355" windowHeight="10530"/>
+    <workbookView windowWidth="13095" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="13" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>表名</t>
   </si>
@@ -43,7 +43,7 @@
     <t>bigint</t>
   </si>
   <si>
-    <t>主键,自增</t>
+    <t>自增长主键</t>
   </si>
   <si>
     <t>organization_id</t>
@@ -76,7 +76,7 @@
     <t>role_ids</t>
   </si>
   <si>
-    <t>角色列表</t>
+    <t>拥有的角色列表,如5,7</t>
   </si>
   <si>
     <t>locked</t>
@@ -97,13 +97,13 @@
     <t>sys_organization</t>
   </si>
   <si>
-    <t>组织机构</t>
+    <t>机构</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>组织机构名</t>
+    <t>机构名称</t>
   </si>
   <si>
     <t>parent_id</t>
@@ -115,7 +115,7 @@
     <t>parent_ids</t>
   </si>
   <si>
-    <t>父编号列表</t>
+    <t>父编号列表，如1/2/</t>
   </si>
   <si>
     <t>sys_resource</t>
@@ -124,9 +124,6 @@
     <t>资源</t>
   </si>
   <si>
-    <t>主键，自增</t>
-  </si>
-  <si>
     <t>资源名称</t>
   </si>
   <si>
@@ -169,10 +166,7 @@
     <t>resource_ids</t>
   </si>
   <si>
-    <t>授权的资源</t>
-  </si>
-  <si>
-    <t>是否可用，默认false</t>
+    <t>拥有的资源,如11,21,31,41</t>
   </si>
 </sst>
 </file>
@@ -180,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -359,36 +353,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,139 +395,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,7 +682,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,13 +718,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -739,10 +733,10 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,7 +754,7 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,13 +763,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,25 +781,25 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1440,7 +1434,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1454,12 +1448,12 @@
         <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -1468,12 +1462,12 @@
         <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -1482,7 +1476,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1513,7 +1507,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1522,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1571,12 +1565,12 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -1585,12 +1579,12 @@
         <v>100</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
@@ -1599,12 +1593,12 @@
         <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
@@ -1613,7 +1607,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1625,7 +1619,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
